--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний возраст)/СХК ОРПО_LAR (Средний возраст)(01.09.2015 23-53-51).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний возраст)/СХК ОРПО_LAR (Средний возраст)(01.09.2015 23-53-51).xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,13 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,19 +442,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -484,22 +489,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>3.8266171990137385E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>3.4865637100575881E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>7.3131809090713266E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1.6296635774947695E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>8.6362940355880699E-5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.4932929810535763E-4</v>
       </c>
     </row>
@@ -507,22 +512,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3.2320463737458158E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>3.9423726596549819E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>7.1744190334007977E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1.2875618186638485E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>9.5958821154261685E-5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.2471500302064654E-4</v>
       </c>
     </row>
@@ -530,22 +535,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.9763811070026428E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>4.0159291244329868E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>6.9923102314356289E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1.1748917303466024E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>9.9734415000500576E-5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.1722358803516082E-4</v>
       </c>
     </row>
@@ -553,22 +558,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.9748183556142525E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4.0056629045796623E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>6.9804812601939145E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1.3109794890681228E-4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.010794672403829E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.3217741614719518E-4</v>
       </c>
     </row>
@@ -576,22 +581,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.9159317318886919E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>3.8194321038090718E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>6.7353638356977633E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1.3880024517001787E-4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>9.6039266475332177E-5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.3483951164535004E-4</v>
       </c>
     </row>
@@ -599,22 +604,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2.5168102034849879E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3.3693277108751111E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>5.8861379143600986E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>1.1168586420748708E-4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>9.1191350822386984E-5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.0287721502987408E-4</v>
       </c>
     </row>
@@ -622,22 +627,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.7774980911628141E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>3.3113689351320214E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>5.0888670262948352E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>8.2303036957578885E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>8.3871908270758677E-5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>1.6617494522833755E-4</v>
       </c>
     </row>
@@ -645,22 +650,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>9.7879484721610485E-6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>3.2461758495130426E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>4.2249706967291473E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>3.7897106832837756E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>7.3062916666666658E-5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.1096002349950441E-4</v>
       </c>
     </row>
@@ -668,22 +673,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9.638752171186843E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>2.6372461026264911E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>3.6011213197451756E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>4.2632246871075971E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>6.2380269740933714E-5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1.0501251661200969E-4</v>
       </c>
     </row>
@@ -691,22 +696,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>6.5626676714857624E-6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>1.7448716059831167E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>2.4011383731316929E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>2.2298578796556506E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>4.2801089640870911E-5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>6.509966843742742E-5</v>
       </c>
     </row>
@@ -714,22 +719,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>3.366074774077473E-6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>9.2127955229172356E-6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>1.2578870296994709E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>1.0241632622955507E-5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>2.6607351716961478E-5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>3.6848984339916987E-5</v>
       </c>
     </row>
@@ -737,22 +742,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.457E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>2.7719999999999999E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>5.2280000000000001E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>1.0548E-4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>6.9120000000000002E-5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>1.7458999999999999E-4</v>
       </c>
     </row>
@@ -762,12 +767,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="7" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -796,22 +806,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2.368598730095942E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>6.0356733413831866E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>8.4042720714791279E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>5.271067719255785E-5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.654802216066482E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.1819089879920606E-4</v>
       </c>
     </row>
@@ -819,22 +829,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2.0815349080754672E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>6.0974081550491216E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>8.1789430631245885E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>7.4235781211891044E-5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1.7407723886048211E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.4831302007237313E-4</v>
       </c>
     </row>
@@ -842,22 +852,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1.7808758835260873E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>5.9268314939934479E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>7.7077073775195352E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>5.183244493843515E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.7996E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.3179244493843514E-4</v>
       </c>
     </row>
@@ -865,22 +875,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.2432853423784026E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>5.6801155406819758E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>7.9234008830603777E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>5.6337996785894269E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.8340086481229983E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.397388615981941E-4</v>
       </c>
     </row>
@@ -888,22 +898,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.3180529246186933E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>5.7181944145360763E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>8.0362473391547696E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>6.4384108652153164E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.8357070814164133E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.4795481679379448E-4</v>
       </c>
     </row>
@@ -911,22 +921,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2.1065994840465082E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>6.4321543706776958E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>8.538753854724204E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>8.3961383396658013E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.8089849385652E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.6485987725317802E-4</v>
       </c>
     </row>
@@ -934,22 +944,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>2.0583463311283899E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>6.7943638773625354E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>8.8527102084909253E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>1.002788719984477E-4</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1.8131657060943527E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>2.8159544260788295E-4</v>
       </c>
     </row>
@@ -957,22 +967,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.3757544199312064E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>6.4009475359168196E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>7.7767019558480259E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>5.7070642697610362E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1.6677952949058211E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>2.2385017218819246E-4</v>
       </c>
     </row>
@@ -980,22 +990,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9.6661740180988795E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>6.461995346049125E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>7.428612747859013E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>4.2665792550371135E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1.5548870370370369E-4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1.9815449625407483E-4</v>
       </c>
     </row>
@@ -1003,22 +1013,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.5061520932630478E-5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>5.5691562452089114E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>7.0753083384719599E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>7.4967333569560797E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>1.4244080738177623E-4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>2.1740814095133702E-4</v>
       </c>
     </row>
@@ -1026,22 +1036,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>1.1302955897111839E-5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>5.4518186817312395E-5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>6.5821142714424241E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>3.0177165200670275E-5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>1.2966724457366157E-4</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>1.5984440977433184E-4</v>
       </c>
     </row>
@@ -1049,22 +1059,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>1.9340000000000001E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>4.8390000000000003E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>6.7730000000000004E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>6.9070000000000001E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.3800999999999999E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>2.0708E-4</v>
       </c>
     </row>
